--- a/data/instance2_900s_resultado.xlsx
+++ b/data/instance2_900s_resultado.xlsx
@@ -460,17 +460,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E0</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Mi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,46 +487,46 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mi</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>E10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -536,19 +536,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,34 +558,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>E10</t>
+          <t>E11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z0</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -614,22 +614,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>E11</t>
+          <t>E12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
@@ -641,34 +641,34 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>E12</t>
+          <t>E13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -685,46 +685,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>E13</t>
+          <t>E14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>E14</t>
+          <t>E15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>E15</t>
+          <t>E16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -756,12 +756,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D4</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
@@ -795,17 +795,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
@@ -817,12 +817,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -839,12 +839,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mi</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D8</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>J</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z0</t>
         </is>
       </c>
     </row>
@@ -905,24 +905,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mi</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D5</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>E2</t>
+          <t>E19</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -932,7 +932,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mi</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -966,22 +966,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>E3</t>
+          <t>E2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>Mi</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z0</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1032,17 +1032,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>E4</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Mi</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mi</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>D1</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1076,17 +1076,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>E6</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Mi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D4</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1103,12 +1103,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mi</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>D0</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z0</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1147,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Mi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z0</t>
         </is>
       </c>
     </row>
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mi</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>D6</t>
+          <t>D1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z0</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
@@ -1218,12 +1218,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>D0</t>
+          <t>D6</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Z0</t>
+          <t>Z1</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Mi</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1366,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mi</t>
+          <t>L</t>
         </is>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Ma</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
